--- a/biology/Botanique/Panneau_de_fibres_dur/Panneau_de_fibres_dur.xlsx
+++ b/biology/Botanique/Panneau_de_fibres_dur/Panneau_de_fibres_dur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un panneau de fibres dur ou plus simplement un panneau dur (en anglais, Masonite, Hardboard, High-density fiberboard ou HDF) est un panneau de fibres de bois à haute densité dont la masse volumique est supérieure à 0,9 g/cm3.
 </t>
@@ -511,9 +523,11 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les panneaux de fibres durs sont fabriqués selon le procédé par voie humide : les fibres lignocellulosiques se lient entre elles par des liaisons naturelles de type pont hydrogène lors du rapprochement des fibres par séchage à haute température et sous forte pression[1]. Ce procédé suit les étapes suivantes : défibrage des morceaux de bois pour former des fibres, mélange des fibres avec de l'eau, formation du « gâteau », essorage, pressage et enfin mise à dimension[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panneaux de fibres durs sont fabriqués selon le procédé par voie humide : les fibres lignocellulosiques se lient entre elles par des liaisons naturelles de type pont hydrogène lors du rapprochement des fibres par séchage à haute température et sous forte pression. Ce procédé suit les étapes suivantes : défibrage des morceaux de bois pour former des fibres, mélange des fibres avec de l'eau, formation du « gâteau », essorage, pressage et enfin mise à dimension.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les panneaux de fibres durs ont généralement une épaisseur entre 3 et 6 mm. Ils présentent une face lisse et une face rugueuse. Ils sont bon marché[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panneaux de fibres durs ont généralement une épaisseur entre 3 et 6 mm. Ils présentent une face lisse et une face rugueuse. Ils sont bon marché.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les panneaux de fibres durs sont utilisés comme panneaux arrières des meubles de rangement, fonds de caisses, parois de portes planes, cloisons sur ossature[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panneaux de fibres durs sont utilisés comme panneaux arrières des meubles de rangement, fonds de caisses, parois de portes planes, cloisons sur ossature. 
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Produits commerciaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les panneaux de fibres durs sont vendus, entre autres, sous le nom commercial d'Isorel de Tarnaise des Panneaux SAS et de Masonite de Masonite International.  En Belgique il y avait le nom commercial d'Unalit.
 </t>
